--- a/excelFile/KIKcd_H.20190415.xlsx
+++ b/excelFile/KIKcd_H.20190415.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6705" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="159">
   <si>
     <t>hCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,7 @@
   </si>
   <si>
     <t>1100000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서울특별시</t>
@@ -71,6 +72,7 @@
   </si>
   <si>
     <t>1111053000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사직동</t>
@@ -274,286 +276,238 @@
     <t>중림동</t>
   </si>
   <si>
-    <t>4128000000</t>
-  </si>
-  <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>고양시</t>
-  </si>
-  <si>
-    <t>19920504</t>
-  </si>
-  <si>
-    <t>4128100000</t>
-  </si>
-  <si>
-    <t>고양시 덕양구</t>
-  </si>
-  <si>
-    <t>19960301</t>
-  </si>
-  <si>
-    <t>4128151000</t>
-  </si>
-  <si>
-    <t>주교동</t>
-  </si>
-  <si>
-    <t>4128152000</t>
-  </si>
-  <si>
-    <t>원신동</t>
-  </si>
-  <si>
-    <t>4128153000</t>
-  </si>
-  <si>
-    <t>흥도동</t>
-  </si>
-  <si>
-    <t>4128154000</t>
-  </si>
-  <si>
-    <t>성사1동</t>
-  </si>
-  <si>
-    <t>4128155000</t>
-  </si>
-  <si>
-    <t>성사2동</t>
-  </si>
-  <si>
-    <t>4128156000</t>
-  </si>
-  <si>
-    <t>효자동</t>
-  </si>
-  <si>
-    <t>4128157500</t>
-  </si>
-  <si>
-    <t>삼송동</t>
-  </si>
-  <si>
-    <t>20180701</t>
-  </si>
-  <si>
-    <t>4128158000</t>
-  </si>
-  <si>
-    <t>창릉동</t>
-  </si>
-  <si>
-    <t>4128159000</t>
-  </si>
-  <si>
-    <t>고양동</t>
-  </si>
-  <si>
-    <t>4128160000</t>
-  </si>
-  <si>
-    <t>관산동</t>
-  </si>
-  <si>
-    <t>4128161000</t>
-  </si>
-  <si>
-    <t>능곡동</t>
-  </si>
-  <si>
-    <t>4128162100</t>
-  </si>
-  <si>
-    <t>화정1동</t>
-  </si>
-  <si>
-    <t>19961021</t>
-  </si>
-  <si>
-    <t>4128162200</t>
-  </si>
-  <si>
-    <t>화정2동</t>
-  </si>
-  <si>
-    <t>4128163000</t>
-  </si>
-  <si>
-    <t>행주동</t>
-  </si>
-  <si>
-    <t>4128164000</t>
-  </si>
-  <si>
-    <t>행신1동</t>
-  </si>
-  <si>
-    <t>4128165000</t>
-  </si>
-  <si>
-    <t>행신2동</t>
-  </si>
-  <si>
-    <t>4128165500</t>
-  </si>
-  <si>
-    <t>행신3동</t>
-  </si>
-  <si>
-    <t>20030203</t>
-  </si>
-  <si>
-    <t>4128166000</t>
-  </si>
-  <si>
-    <t>화전동</t>
-  </si>
-  <si>
-    <t>4128167000</t>
-  </si>
-  <si>
-    <t>대덕동</t>
-  </si>
-  <si>
-    <t>4128500000</t>
-  </si>
-  <si>
-    <t>고양시 일산동구</t>
-  </si>
-  <si>
-    <t>20050516</t>
-  </si>
-  <si>
-    <t>4128551000</t>
-  </si>
-  <si>
-    <t>식사동</t>
-  </si>
-  <si>
-    <t>4128552000</t>
-  </si>
-  <si>
-    <t>중산동</t>
-  </si>
-  <si>
-    <t>4128553000</t>
-  </si>
-  <si>
-    <t>정발산동</t>
-  </si>
-  <si>
-    <t>4128554000</t>
-  </si>
-  <si>
-    <t>풍산동</t>
-  </si>
-  <si>
-    <t>4128555100</t>
-  </si>
-  <si>
-    <t>백석1동</t>
-  </si>
-  <si>
-    <t>20061023</t>
-  </si>
-  <si>
-    <t>4128555200</t>
-  </si>
-  <si>
-    <t>백석2동</t>
-  </si>
-  <si>
-    <t>4128556000</t>
-  </si>
-  <si>
-    <t>마두1동</t>
-  </si>
-  <si>
-    <t>4128557000</t>
-  </si>
-  <si>
-    <t>마두2동</t>
-  </si>
-  <si>
-    <t>4128558000</t>
-  </si>
-  <si>
-    <t>장항1동</t>
-  </si>
-  <si>
-    <t>4128559000</t>
-  </si>
-  <si>
-    <t>장항2동</t>
-  </si>
-  <si>
-    <t>4128560000</t>
-  </si>
-  <si>
-    <t>고봉동</t>
-  </si>
-  <si>
-    <t>4128700000</t>
-  </si>
-  <si>
-    <t>고양시 일산서구</t>
-  </si>
-  <si>
-    <t>4128751000</t>
-  </si>
-  <si>
-    <t>일산1동</t>
-  </si>
-  <si>
-    <t>4128752000</t>
-  </si>
-  <si>
-    <t>일산2동</t>
-  </si>
-  <si>
-    <t>4128753000</t>
-  </si>
-  <si>
-    <t>일산3동</t>
-  </si>
-  <si>
-    <t>4128754000</t>
-  </si>
-  <si>
-    <t>탄현동</t>
-  </si>
-  <si>
-    <t>4128755000</t>
-  </si>
-  <si>
-    <t>주엽1동</t>
-  </si>
-  <si>
-    <t>4128756000</t>
-  </si>
-  <si>
-    <t>주엽2동</t>
-  </si>
-  <si>
-    <t>4128757000</t>
-  </si>
-  <si>
-    <t>대화동</t>
-  </si>
-  <si>
-    <t>4128758000</t>
-  </si>
-  <si>
-    <t>송포동</t>
-  </si>
-  <si>
-    <t>4128759000</t>
-  </si>
-  <si>
-    <t>송산동</t>
+    <t>4600000000</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>4611000000</t>
+  </si>
+  <si>
+    <t>목포시</t>
+  </si>
+  <si>
+    <t>4611051000</t>
+  </si>
+  <si>
+    <t>용당1동</t>
+  </si>
+  <si>
+    <t>4611052000</t>
+  </si>
+  <si>
+    <t>용당2동</t>
+  </si>
+  <si>
+    <t>4611053500</t>
+  </si>
+  <si>
+    <t>연동</t>
+  </si>
+  <si>
+    <t>20060807</t>
+  </si>
+  <si>
+    <t>4611054500</t>
+  </si>
+  <si>
+    <t>산정동</t>
+  </si>
+  <si>
+    <t>4611055400</t>
+  </si>
+  <si>
+    <t>연산동</t>
+  </si>
+  <si>
+    <t>19970101</t>
+  </si>
+  <si>
+    <t>4611055800</t>
+  </si>
+  <si>
+    <t>원산동</t>
+  </si>
+  <si>
+    <t>4611056500</t>
+  </si>
+  <si>
+    <t>대성동</t>
+  </si>
+  <si>
+    <t>4611059500</t>
+  </si>
+  <si>
+    <t>목원동</t>
+  </si>
+  <si>
+    <t>4611064000</t>
+  </si>
+  <si>
+    <t>동명동</t>
+  </si>
+  <si>
+    <t>4611064500</t>
+  </si>
+  <si>
+    <t>삼학동</t>
+  </si>
+  <si>
+    <t>4611065500</t>
+  </si>
+  <si>
+    <t>만호동</t>
+  </si>
+  <si>
+    <t>4611066000</t>
+  </si>
+  <si>
+    <t>유달동</t>
+  </si>
+  <si>
+    <t>4611069500</t>
+  </si>
+  <si>
+    <t>죽교동</t>
+  </si>
+  <si>
+    <t>4611070500</t>
+  </si>
+  <si>
+    <t>북항동</t>
+  </si>
+  <si>
+    <t>4611074500</t>
+  </si>
+  <si>
+    <t>용해동</t>
+  </si>
+  <si>
+    <t>4611075000</t>
+  </si>
+  <si>
+    <t>이로동</t>
+  </si>
+  <si>
+    <t>4611075600</t>
+  </si>
+  <si>
+    <t>상동</t>
+  </si>
+  <si>
+    <t>19940715</t>
+  </si>
+  <si>
+    <t>2600000000</t>
+  </si>
+  <si>
+    <t>부산광역시</t>
+  </si>
+  <si>
+    <t>19950101</t>
+  </si>
+  <si>
+    <t>2611000000</t>
+  </si>
+  <si>
+    <t>2611051000</t>
+  </si>
+  <si>
+    <t>중앙동</t>
+  </si>
+  <si>
+    <t>2611052000</t>
+  </si>
+  <si>
+    <t>동광동</t>
+  </si>
+  <si>
+    <t>2611053000</t>
+  </si>
+  <si>
+    <t>대청동</t>
+  </si>
+  <si>
+    <t>2611054500</t>
+  </si>
+  <si>
+    <t>보수동</t>
+  </si>
+  <si>
+    <t>19990101</t>
+  </si>
+  <si>
+    <t>2611056000</t>
+  </si>
+  <si>
+    <t>부평동</t>
+  </si>
+  <si>
+    <t>2611057000</t>
+  </si>
+  <si>
+    <t>광복동</t>
+  </si>
+  <si>
+    <t>2611058000</t>
+  </si>
+  <si>
+    <t>남포동</t>
+  </si>
+  <si>
+    <t>2611059000</t>
+  </si>
+  <si>
+    <t>영주제1동</t>
+  </si>
+  <si>
+    <t>2611060000</t>
+  </si>
+  <si>
+    <t>영주제2동</t>
+  </si>
+  <si>
+    <t>2614000000</t>
+  </si>
+  <si>
+    <t>서구</t>
+  </si>
+  <si>
+    <t>2614051000</t>
+  </si>
+  <si>
+    <t>동대신제1동</t>
+  </si>
+  <si>
+    <t>2614052000</t>
+  </si>
+  <si>
+    <t>동대신제2동</t>
+  </si>
+  <si>
+    <t>2614053000</t>
+  </si>
+  <si>
+    <t>동대신제3동</t>
+  </si>
+  <si>
+    <t>2614054000</t>
+  </si>
+  <si>
+    <t>서대신제1동</t>
+  </si>
+  <si>
+    <t>2614056000</t>
+  </si>
+  <si>
+    <t>서대신제3동</t>
+  </si>
+  <si>
+    <t>2614057000</t>
+  </si>
+  <si>
+    <t>서대신제4동</t>
   </si>
 </sst>
 </file>
@@ -897,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1516,720 +1470,612 @@
       <c r="B37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile/KIKcd_H.20190415.xlsx
+++ b/excelFile/KIKcd_H.20190415.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="197">
   <si>
     <t>hCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,120 @@
   </si>
   <si>
     <t>서대신제4동</t>
+  </si>
+  <si>
+    <t>2826500000</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>서구검단출장</t>
+  </si>
+  <si>
+    <t>19950301</t>
+  </si>
+  <si>
+    <t>4210500000</t>
+  </si>
+  <si>
+    <t>동해출장소</t>
+  </si>
+  <si>
+    <t>4615031500</t>
+  </si>
+  <si>
+    <t>순천시</t>
+  </si>
+  <si>
+    <t>해룡면상삼출장소</t>
+  </si>
+  <si>
+    <t>4146000000</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>용인시</t>
+  </si>
+  <si>
+    <t>19960301</t>
+  </si>
+  <si>
+    <t>4146100000</t>
+  </si>
+  <si>
+    <t>용인시 처인구</t>
+  </si>
+  <si>
+    <t>20051031</t>
+  </si>
+  <si>
+    <t>4146125000</t>
+  </si>
+  <si>
+    <t>포곡읍</t>
+  </si>
+  <si>
+    <t>4146125300</t>
+  </si>
+  <si>
+    <t>모현읍</t>
+  </si>
+  <si>
+    <t>20171211</t>
+  </si>
+  <si>
+    <t>4146125600</t>
+  </si>
+  <si>
+    <t>이동읍</t>
+  </si>
+  <si>
+    <t>4146132000</t>
+  </si>
+  <si>
+    <t>남사면</t>
+  </si>
+  <si>
+    <t>4146134000</t>
+  </si>
+  <si>
+    <t>원삼면</t>
+  </si>
+  <si>
+    <t>4146135000</t>
+  </si>
+  <si>
+    <t>백암면</t>
+  </si>
+  <si>
+    <t>4146136000</t>
+  </si>
+  <si>
+    <t>양지면</t>
+  </si>
+  <si>
+    <t>4146151000</t>
+  </si>
+  <si>
+    <t>4146152000</t>
+  </si>
+  <si>
+    <t>역삼동</t>
+  </si>
+  <si>
+    <t>4146153000</t>
+  </si>
+  <si>
+    <t>유림동</t>
+  </si>
+  <si>
+    <t>4146154000</t>
+  </si>
+  <si>
+    <t>동부동</t>
   </si>
 </sst>
 </file>
@@ -561,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +683,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E73"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1463,29 +1580,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
         <v>7</v>
@@ -1493,7 +1610,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>82</v>
@@ -1501,16 +1618,14 @@
       <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>82</v>
@@ -1519,7 +1634,7 @@
         <v>84</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -1527,7 +1642,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>82</v>
@@ -1536,15 +1651,15 @@
         <v>84</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>82</v>
@@ -1553,7 +1668,7 @@
         <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>91</v>
@@ -1561,7 +1676,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>82</v>
@@ -1570,15 +1685,15 @@
         <v>84</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>82</v>
@@ -1587,7 +1702,7 @@
         <v>84</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>96</v>
@@ -1595,7 +1710,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>82</v>
@@ -1604,7 +1719,7 @@
         <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>96</v>
@@ -1612,7 +1727,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>82</v>
@@ -1621,15 +1736,15 @@
         <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>82</v>
@@ -1638,15 +1753,15 @@
         <v>84</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>82</v>
@@ -1655,15 +1770,15 @@
         <v>84</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>82</v>
@@ -1672,15 +1787,15 @@
         <v>84</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>82</v>
@@ -1689,15 +1804,15 @@
         <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>82</v>
@@ -1706,15 +1821,15 @@
         <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>82</v>
@@ -1723,15 +1838,15 @@
         <v>84</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>82</v>
@@ -1740,15 +1855,15 @@
         <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>82</v>
@@ -1757,15 +1872,15 @@
         <v>84</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>82</v>
@@ -1774,35 +1889,37 @@
         <v>84</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="1" t="s">
         <v>124</v>
@@ -1810,7 +1927,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>123</v>
@@ -1818,16 +1935,14 @@
       <c r="C58" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>123</v>
@@ -1836,7 +1951,7 @@
         <v>47</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>124</v>
@@ -1844,7 +1959,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>123</v>
@@ -1853,7 +1968,7 @@
         <v>47</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>124</v>
@@ -1861,7 +1976,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>123</v>
@@ -1870,15 +1985,15 @@
         <v>47</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>123</v>
@@ -1887,15 +2002,15 @@
         <v>47</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>123</v>
@@ -1904,7 +2019,7 @@
         <v>47</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>124</v>
@@ -1912,7 +2027,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>123</v>
@@ -1921,7 +2036,7 @@
         <v>47</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>124</v>
@@ -1929,7 +2044,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>123</v>
@@ -1938,7 +2053,7 @@
         <v>47</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>124</v>
@@ -1946,7 +2061,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>123</v>
@@ -1955,7 +2070,7 @@
         <v>47</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>124</v>
@@ -1963,22 +2078,24 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>123</v>
@@ -1986,16 +2103,14 @@
       <c r="C68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>123</v>
@@ -2004,7 +2119,7 @@
         <v>146</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>124</v>
@@ -2012,7 +2127,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>123</v>
@@ -2021,7 +2136,7 @@
         <v>146</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>124</v>
@@ -2029,7 +2144,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>123</v>
@@ -2038,7 +2153,7 @@
         <v>146</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>124</v>
@@ -2046,7 +2161,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>123</v>
@@ -2055,7 +2170,7 @@
         <v>146</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>124</v>
@@ -2063,7 +2178,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>123</v>
@@ -2072,10 +2187,274 @@
         <v>146</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile/KIKcd_H.20190415.xlsx
+++ b/excelFile/KIKcd_H.20190415.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15540" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="247">
   <si>
     <t>hCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,168 @@
     <t>중림동</t>
   </si>
   <si>
+    <t>1168000000</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>1168051000</t>
+  </si>
+  <si>
+    <t>신사동</t>
+  </si>
+  <si>
+    <t>1168052100</t>
+  </si>
+  <si>
+    <t>논현1동</t>
+  </si>
+  <si>
+    <t>19921001</t>
+  </si>
+  <si>
+    <t>1168053100</t>
+  </si>
+  <si>
+    <t>논현2동</t>
+  </si>
+  <si>
+    <t>1168054500</t>
+  </si>
+  <si>
+    <t>압구정동</t>
+  </si>
+  <si>
+    <t>20090301</t>
+  </si>
+  <si>
+    <t>1168056500</t>
+  </si>
+  <si>
+    <t>청담동</t>
+  </si>
+  <si>
+    <t>1168058000</t>
+  </si>
+  <si>
+    <t>삼성1동</t>
+  </si>
+  <si>
+    <t>1168059000</t>
+  </si>
+  <si>
+    <t>삼성2동</t>
+  </si>
+  <si>
+    <t>1168060000</t>
+  </si>
+  <si>
+    <t>대치1동</t>
+  </si>
+  <si>
+    <t>1168061000</t>
+  </si>
+  <si>
+    <t>대치2동</t>
+  </si>
+  <si>
+    <t>1168063000</t>
+  </si>
+  <si>
+    <t>대치4동</t>
+  </si>
+  <si>
+    <t>19880701</t>
+  </si>
+  <si>
+    <t>1168064000</t>
+  </si>
+  <si>
+    <t>역삼1동</t>
+  </si>
+  <si>
+    <t>1168065000</t>
+  </si>
+  <si>
+    <t>역삼2동</t>
+  </si>
+  <si>
+    <t>1168065500</t>
+  </si>
+  <si>
+    <t>도곡1동</t>
+  </si>
+  <si>
+    <t>19890101</t>
+  </si>
+  <si>
+    <t>1168065600</t>
+  </si>
+  <si>
+    <t>도곡2동</t>
+  </si>
+  <si>
+    <t>1168066000</t>
+  </si>
+  <si>
+    <t>개포1동</t>
+  </si>
+  <si>
+    <t>1168067000</t>
+  </si>
+  <si>
+    <t>개포2동</t>
+  </si>
+  <si>
+    <t>1168069000</t>
+  </si>
+  <si>
+    <t>개포4동</t>
+  </si>
+  <si>
+    <t>1168070000</t>
+  </si>
+  <si>
+    <t>세곡동</t>
+  </si>
+  <si>
+    <t>1168072000</t>
+  </si>
+  <si>
+    <t>일원본동</t>
+  </si>
+  <si>
+    <t>1168073000</t>
+  </si>
+  <si>
+    <t>일원1동</t>
+  </si>
+  <si>
+    <t>1168074000</t>
+  </si>
+  <si>
+    <t>일원2동</t>
+  </si>
+  <si>
+    <t>1168075000</t>
+  </si>
+  <si>
+    <t>수서동</t>
+  </si>
+  <si>
+    <t>2826500000</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>서구검단출장</t>
+  </si>
+  <si>
+    <t>19950301</t>
+  </si>
+  <si>
     <t>4600000000</t>
   </si>
   <si>
@@ -508,18 +670,6 @@
   </si>
   <si>
     <t>서대신제4동</t>
-  </si>
-  <si>
-    <t>2826500000</t>
-  </si>
-  <si>
-    <t>인천광역시</t>
-  </si>
-  <si>
-    <t>서구검단출장</t>
-  </si>
-  <si>
-    <t>19950301</t>
   </si>
   <si>
     <t>4210500000</t>
@@ -968,13 +1118,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1582,195 +1735,201 @@
     </row>
     <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="1" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
@@ -1778,632 +1937,634 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="1" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="1" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E75" s="1" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="2"/>
       <c r="E77" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D78" s="2"/>
       <c r="E78" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2411,16 +2572,16 @@
         <v>191</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2428,16 +2589,16 @@
         <v>193</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>194</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,16 +2606,397 @@
         <v>195</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile/KIKcd_H.20190415.xlsx
+++ b/excelFile/KIKcd_H.20190415.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="248">
   <si>
     <t>hCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>동부동</t>
+  </si>
+  <si>
+    <t>4100000000</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2784,37 +2787,35 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="1" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>219</v>
@@ -2822,16 +2823,14 @@
       <c r="C102" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>219</v>
@@ -2840,15 +2839,15 @@
         <v>223</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>219</v>
@@ -2857,7 +2856,7 @@
         <v>223</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>229</v>
@@ -2865,7 +2864,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>219</v>
@@ -2874,15 +2873,15 @@
         <v>223</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>219</v>
@@ -2891,7 +2890,7 @@
         <v>223</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>224</v>
@@ -2899,7 +2898,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>219</v>
@@ -2908,7 +2907,7 @@
         <v>223</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>224</v>
@@ -2916,7 +2915,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>219</v>
@@ -2925,7 +2924,7 @@
         <v>223</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>224</v>
@@ -2933,7 +2932,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>219</v>
@@ -2942,7 +2941,7 @@
         <v>223</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>224</v>
@@ -2950,7 +2949,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>219</v>
@@ -2959,7 +2958,7 @@
         <v>223</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>224</v>
@@ -2967,7 +2966,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>219</v>
@@ -2976,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>224</v>
@@ -2984,7 +2983,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>219</v>
@@ -2993,9 +2992,26 @@
         <v>223</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>224</v>
       </c>
     </row>

--- a/excelFile/KIKcd_H.20190415.xlsx
+++ b/excelFile/KIKcd_H.20190415.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="297">
   <si>
     <t>hCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,6 +775,153 @@
   </si>
   <si>
     <t>4100000000</t>
+  </si>
+  <si>
+    <t>3600000000</t>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+  </si>
+  <si>
+    <t>20120701</t>
+  </si>
+  <si>
+    <t>3611000000</t>
+  </si>
+  <si>
+    <t>3611025000</t>
+  </si>
+  <si>
+    <t>조치원읍</t>
+  </si>
+  <si>
+    <t>3611031000</t>
+  </si>
+  <si>
+    <t>연기면</t>
+  </si>
+  <si>
+    <t>3611032000</t>
+  </si>
+  <si>
+    <t>연동면</t>
+  </si>
+  <si>
+    <t>3611033000</t>
+  </si>
+  <si>
+    <t>부강면</t>
+  </si>
+  <si>
+    <t>3611034000</t>
+  </si>
+  <si>
+    <t>금남면</t>
+  </si>
+  <si>
+    <t>3611035000</t>
+  </si>
+  <si>
+    <t>장군면</t>
+  </si>
+  <si>
+    <t>3611036000</t>
+  </si>
+  <si>
+    <t>연서면</t>
+  </si>
+  <si>
+    <t>3611037000</t>
+  </si>
+  <si>
+    <t>전의면</t>
+  </si>
+  <si>
+    <t>3611038000</t>
+  </si>
+  <si>
+    <t>전동면</t>
+  </si>
+  <si>
+    <t>3611039000</t>
+  </si>
+  <si>
+    <t>소정면</t>
+  </si>
+  <si>
+    <t>3611051000</t>
+  </si>
+  <si>
+    <t>한솔동</t>
+  </si>
+  <si>
+    <t>3611051500</t>
+  </si>
+  <si>
+    <t>새롬동</t>
+  </si>
+  <si>
+    <t>20171016</t>
+  </si>
+  <si>
+    <t>3611052000</t>
+  </si>
+  <si>
+    <t>도담동</t>
+  </si>
+  <si>
+    <t>20140210</t>
+  </si>
+  <si>
+    <t>3611053000</t>
+  </si>
+  <si>
+    <t>아름동</t>
+  </si>
+  <si>
+    <t>20150126</t>
+  </si>
+  <si>
+    <t>3611054000</t>
+  </si>
+  <si>
+    <t>종촌동</t>
+  </si>
+  <si>
+    <t>20160418</t>
+  </si>
+  <si>
+    <t>3611055000</t>
+  </si>
+  <si>
+    <t>고운동</t>
+  </si>
+  <si>
+    <t>20170206</t>
+  </si>
+  <si>
+    <t>3611055500</t>
+  </si>
+  <si>
+    <t>소담동</t>
+  </si>
+  <si>
+    <t>20180723</t>
+  </si>
+  <si>
+    <t>3611056000</t>
+  </si>
+  <si>
+    <t>보람동</t>
+  </si>
+  <si>
+    <t>3611057000</t>
+  </si>
+  <si>
+    <t>대평동</t>
+  </si>
+  <si>
+    <t>20180716</t>
   </si>
 </sst>
 </file>
@@ -1121,15 +1268,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3015,6 +3166,317 @@
         <v>224</v>
       </c>
     </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelFile/KIKcd_H.20190415.xlsx
+++ b/excelFile/KIKcd_H.20190415.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="753">
   <si>
     <t>hCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -922,6 +922,1374 @@
   </si>
   <si>
     <t>20180716</t>
+  </si>
+  <si>
+    <t>2700000000</t>
+  </si>
+  <si>
+    <t>대구광역시</t>
+  </si>
+  <si>
+    <t>2711000000</t>
+  </si>
+  <si>
+    <t>2711051700</t>
+  </si>
+  <si>
+    <t>동인동</t>
+  </si>
+  <si>
+    <t>20110704</t>
+  </si>
+  <si>
+    <t>2711054500</t>
+  </si>
+  <si>
+    <t>삼덕동</t>
+  </si>
+  <si>
+    <t>19980701</t>
+  </si>
+  <si>
+    <t>2711056500</t>
+  </si>
+  <si>
+    <t>성내1동</t>
+  </si>
+  <si>
+    <t>2711057500</t>
+  </si>
+  <si>
+    <t>성내2동</t>
+  </si>
+  <si>
+    <t>2711058500</t>
+  </si>
+  <si>
+    <t>성내3동</t>
+  </si>
+  <si>
+    <t>2711059500</t>
+  </si>
+  <si>
+    <t>대신동</t>
+  </si>
+  <si>
+    <t>2711064000</t>
+  </si>
+  <si>
+    <t>남산1동</t>
+  </si>
+  <si>
+    <t>2711065000</t>
+  </si>
+  <si>
+    <t>남산2동</t>
+  </si>
+  <si>
+    <t>2711066000</t>
+  </si>
+  <si>
+    <t>남산3동</t>
+  </si>
+  <si>
+    <t>2711067000</t>
+  </si>
+  <si>
+    <t>남산4동</t>
+  </si>
+  <si>
+    <t>2711068000</t>
+  </si>
+  <si>
+    <t>대봉1동</t>
+  </si>
+  <si>
+    <t>2711069000</t>
+  </si>
+  <si>
+    <t>대봉2동</t>
+  </si>
+  <si>
+    <t>2800000000</t>
+  </si>
+  <si>
+    <t>2811000000</t>
+  </si>
+  <si>
+    <t>2811052000</t>
+  </si>
+  <si>
+    <t>연안동</t>
+  </si>
+  <si>
+    <t>2811053000</t>
+  </si>
+  <si>
+    <t>신포동</t>
+  </si>
+  <si>
+    <t>19981010</t>
+  </si>
+  <si>
+    <t>2811054000</t>
+  </si>
+  <si>
+    <t>신흥동</t>
+  </si>
+  <si>
+    <t>2811056000</t>
+  </si>
+  <si>
+    <t>도원동</t>
+  </si>
+  <si>
+    <t>2811057000</t>
+  </si>
+  <si>
+    <t>율목동</t>
+  </si>
+  <si>
+    <t>2811058500</t>
+  </si>
+  <si>
+    <t>동인천동</t>
+  </si>
+  <si>
+    <t>2811060000</t>
+  </si>
+  <si>
+    <t>북성동</t>
+  </si>
+  <si>
+    <t>2811061000</t>
+  </si>
+  <si>
+    <t>송월동</t>
+  </si>
+  <si>
+    <t>2811062000</t>
+  </si>
+  <si>
+    <t>영종동</t>
+  </si>
+  <si>
+    <t>2811062200</t>
+  </si>
+  <si>
+    <t>영종1동</t>
+  </si>
+  <si>
+    <t>20180101</t>
+  </si>
+  <si>
+    <t>2811062800</t>
+  </si>
+  <si>
+    <t>운서동</t>
+  </si>
+  <si>
+    <t>20120101</t>
+  </si>
+  <si>
+    <t>2811063000</t>
+  </si>
+  <si>
+    <t>용유동</t>
+  </si>
+  <si>
+    <t>2900000000</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>2911000000</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>2911052500</t>
+  </si>
+  <si>
+    <t>충장동</t>
+  </si>
+  <si>
+    <t>19980427</t>
+  </si>
+  <si>
+    <t>2911054500</t>
+  </si>
+  <si>
+    <t>2911056000</t>
+  </si>
+  <si>
+    <t>계림1동</t>
+  </si>
+  <si>
+    <t>2911057000</t>
+  </si>
+  <si>
+    <t>계림2동</t>
+  </si>
+  <si>
+    <t>2911059000</t>
+  </si>
+  <si>
+    <t>산수1동</t>
+  </si>
+  <si>
+    <t>2911060000</t>
+  </si>
+  <si>
+    <t>산수2동</t>
+  </si>
+  <si>
+    <t>2911062000</t>
+  </si>
+  <si>
+    <t>지산1동</t>
+  </si>
+  <si>
+    <t>2911063000</t>
+  </si>
+  <si>
+    <t>지산2동</t>
+  </si>
+  <si>
+    <t>2911065500</t>
+  </si>
+  <si>
+    <t>서남동</t>
+  </si>
+  <si>
+    <t>2911068500</t>
+  </si>
+  <si>
+    <t>학동</t>
+  </si>
+  <si>
+    <t>2911071000</t>
+  </si>
+  <si>
+    <t>학운동</t>
+  </si>
+  <si>
+    <t>2911073000</t>
+  </si>
+  <si>
+    <t>지원1동</t>
+  </si>
+  <si>
+    <t>2911074000</t>
+  </si>
+  <si>
+    <t>지원2동</t>
+  </si>
+  <si>
+    <t>3000000000</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>3011000000</t>
+  </si>
+  <si>
+    <t>3011051500</t>
+  </si>
+  <si>
+    <t>19981214</t>
+  </si>
+  <si>
+    <t>3011053000</t>
+  </si>
+  <si>
+    <t>효동</t>
+  </si>
+  <si>
+    <t>3011054500</t>
+  </si>
+  <si>
+    <t>신인동</t>
+  </si>
+  <si>
+    <t>20080901</t>
+  </si>
+  <si>
+    <t>3011055100</t>
+  </si>
+  <si>
+    <t>판암1동</t>
+  </si>
+  <si>
+    <t>3011055200</t>
+  </si>
+  <si>
+    <t>판암2동</t>
+  </si>
+  <si>
+    <t>3011056000</t>
+  </si>
+  <si>
+    <t>용운동</t>
+  </si>
+  <si>
+    <t>3011058500</t>
+  </si>
+  <si>
+    <t>대동</t>
+  </si>
+  <si>
+    <t>3011059000</t>
+  </si>
+  <si>
+    <t>자양동</t>
+  </si>
+  <si>
+    <t>3011062000</t>
+  </si>
+  <si>
+    <t>가양1동</t>
+  </si>
+  <si>
+    <t>3011063000</t>
+  </si>
+  <si>
+    <t>가양2동</t>
+  </si>
+  <si>
+    <t>3011064000</t>
+  </si>
+  <si>
+    <t>용전동</t>
+  </si>
+  <si>
+    <t>3011066500</t>
+  </si>
+  <si>
+    <t>성남동</t>
+  </si>
+  <si>
+    <t>3011067000</t>
+  </si>
+  <si>
+    <t>홍도동</t>
+  </si>
+  <si>
+    <t>3011069500</t>
+  </si>
+  <si>
+    <t>삼성동</t>
+  </si>
+  <si>
+    <t>3011072500</t>
+  </si>
+  <si>
+    <t>3011074000</t>
+  </si>
+  <si>
+    <t>산내동</t>
+  </si>
+  <si>
+    <t>3100000000</t>
+  </si>
+  <si>
+    <t>울산광역시</t>
+  </si>
+  <si>
+    <t>19970715</t>
+  </si>
+  <si>
+    <t>3111000000</t>
+  </si>
+  <si>
+    <t>3111051000</t>
+  </si>
+  <si>
+    <t>학성동</t>
+  </si>
+  <si>
+    <t>3111052000</t>
+  </si>
+  <si>
+    <t>반구1동</t>
+  </si>
+  <si>
+    <t>3111053000</t>
+  </si>
+  <si>
+    <t>반구2동</t>
+  </si>
+  <si>
+    <t>3111054000</t>
+  </si>
+  <si>
+    <t>복산1동</t>
+  </si>
+  <si>
+    <t>3111055000</t>
+  </si>
+  <si>
+    <t>복산2동</t>
+  </si>
+  <si>
+    <t>3111058500</t>
+  </si>
+  <si>
+    <t>3111059000</t>
+  </si>
+  <si>
+    <t>우정동</t>
+  </si>
+  <si>
+    <t>3111060000</t>
+  </si>
+  <si>
+    <t>태화동</t>
+  </si>
+  <si>
+    <t>3111061000</t>
+  </si>
+  <si>
+    <t>다운동</t>
+  </si>
+  <si>
+    <t>3111062000</t>
+  </si>
+  <si>
+    <t>병영1동</t>
+  </si>
+  <si>
+    <t>3111063000</t>
+  </si>
+  <si>
+    <t>병영2동</t>
+  </si>
+  <si>
+    <t>3111064000</t>
+  </si>
+  <si>
+    <t>약사동</t>
+  </si>
+  <si>
+    <t>3111065000</t>
+  </si>
+  <si>
+    <t>성안동</t>
+  </si>
+  <si>
+    <t>20140901</t>
+  </si>
+  <si>
+    <t>4110500000</t>
+  </si>
+  <si>
+    <t>북부출장소</t>
+  </si>
+  <si>
+    <t>4111000000</t>
+  </si>
+  <si>
+    <t>수원시</t>
+  </si>
+  <si>
+    <t>4111100000</t>
+  </si>
+  <si>
+    <t>수원시 장안구</t>
+  </si>
+  <si>
+    <t>4111156000</t>
+  </si>
+  <si>
+    <t>파장동</t>
+  </si>
+  <si>
+    <t>4111156600</t>
+  </si>
+  <si>
+    <t>율천동</t>
+  </si>
+  <si>
+    <t>19900101</t>
+  </si>
+  <si>
+    <t>4111157100</t>
+  </si>
+  <si>
+    <t>정자1동</t>
+  </si>
+  <si>
+    <t>4111157200</t>
+  </si>
+  <si>
+    <t>정자2동</t>
+  </si>
+  <si>
+    <t>4111157300</t>
+  </si>
+  <si>
+    <t>정자3동</t>
+  </si>
+  <si>
+    <t>20030210</t>
+  </si>
+  <si>
+    <t>4111158000</t>
+  </si>
+  <si>
+    <t>영화동</t>
+  </si>
+  <si>
+    <t>4111159100</t>
+  </si>
+  <si>
+    <t>송죽동</t>
+  </si>
+  <si>
+    <t>19900520</t>
+  </si>
+  <si>
+    <t>4111159700</t>
+  </si>
+  <si>
+    <t>조원1동</t>
+  </si>
+  <si>
+    <t>4111159800</t>
+  </si>
+  <si>
+    <t>조원2동</t>
+  </si>
+  <si>
+    <t>4111160000</t>
+  </si>
+  <si>
+    <t>연무동</t>
+  </si>
+  <si>
+    <t>4159200000</t>
+  </si>
+  <si>
+    <t>화성시동부출장소</t>
+  </si>
+  <si>
+    <t>20060102</t>
+  </si>
+  <si>
+    <t>4159400000</t>
+  </si>
+  <si>
+    <t>화성시동탄출장소</t>
+  </si>
+  <si>
+    <t>20181105</t>
+  </si>
+  <si>
+    <t>4200000000</t>
+  </si>
+  <si>
+    <t>강원도</t>
+  </si>
+  <si>
+    <t>4211000000</t>
+  </si>
+  <si>
+    <t>춘천시</t>
+  </si>
+  <si>
+    <t>4211025000</t>
+  </si>
+  <si>
+    <t>신북읍</t>
+  </si>
+  <si>
+    <t>19950302</t>
+  </si>
+  <si>
+    <t>4211031000</t>
+  </si>
+  <si>
+    <t>동면</t>
+  </si>
+  <si>
+    <t>4211032000</t>
+  </si>
+  <si>
+    <t>동산면</t>
+  </si>
+  <si>
+    <t>4211033000</t>
+  </si>
+  <si>
+    <t>신동면</t>
+  </si>
+  <si>
+    <t>4211034000</t>
+  </si>
+  <si>
+    <t>남면</t>
+  </si>
+  <si>
+    <t>4211035000</t>
+  </si>
+  <si>
+    <t>서면</t>
+  </si>
+  <si>
+    <t>4211036000</t>
+  </si>
+  <si>
+    <t>사북면</t>
+  </si>
+  <si>
+    <t>4211038000</t>
+  </si>
+  <si>
+    <t>북산면</t>
+  </si>
+  <si>
+    <t>4211039000</t>
+  </si>
+  <si>
+    <t>동내면</t>
+  </si>
+  <si>
+    <t>4211040000</t>
+  </si>
+  <si>
+    <t>남산면</t>
+  </si>
+  <si>
+    <t>4211052000</t>
+  </si>
+  <si>
+    <t>교동</t>
+  </si>
+  <si>
+    <t>19950415</t>
+  </si>
+  <si>
+    <t>4211053000</t>
+  </si>
+  <si>
+    <t>조운동</t>
+  </si>
+  <si>
+    <t>4211054500</t>
+  </si>
+  <si>
+    <t>약사명동</t>
+  </si>
+  <si>
+    <t>19981012</t>
+  </si>
+  <si>
+    <t>4211057000</t>
+  </si>
+  <si>
+    <t>근화동</t>
+  </si>
+  <si>
+    <t>4211058000</t>
+  </si>
+  <si>
+    <t>소양동</t>
+  </si>
+  <si>
+    <t>4211060000</t>
+  </si>
+  <si>
+    <t>후평1동</t>
+  </si>
+  <si>
+    <t>4211061000</t>
+  </si>
+  <si>
+    <t>후평2동</t>
+  </si>
+  <si>
+    <t>4211061100</t>
+  </si>
+  <si>
+    <t>후평3동</t>
+  </si>
+  <si>
+    <t>19940827</t>
+  </si>
+  <si>
+    <t>4211062000</t>
+  </si>
+  <si>
+    <t>효자1동</t>
+  </si>
+  <si>
+    <t>4211063000</t>
+  </si>
+  <si>
+    <t>효자2동</t>
+  </si>
+  <si>
+    <t>4211064000</t>
+  </si>
+  <si>
+    <t>효자3동</t>
+  </si>
+  <si>
+    <t>4211065000</t>
+  </si>
+  <si>
+    <t>석사동</t>
+  </si>
+  <si>
+    <t>4211066000</t>
+  </si>
+  <si>
+    <t>퇴계동</t>
+  </si>
+  <si>
+    <t>4211067500</t>
+  </si>
+  <si>
+    <t>강남동</t>
+  </si>
+  <si>
+    <t>4211070500</t>
+  </si>
+  <si>
+    <t>신사우동</t>
+  </si>
+  <si>
+    <t>4300000000</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>4311000000</t>
+  </si>
+  <si>
+    <t>청주시</t>
+  </si>
+  <si>
+    <t>4311100000</t>
+  </si>
+  <si>
+    <t>청주시 상당구</t>
+  </si>
+  <si>
+    <t>4311131000</t>
+  </si>
+  <si>
+    <t>낭성면</t>
+  </si>
+  <si>
+    <t>20140701</t>
+  </si>
+  <si>
+    <t>4311132000</t>
+  </si>
+  <si>
+    <t>미원면</t>
+  </si>
+  <si>
+    <t>4311133000</t>
+  </si>
+  <si>
+    <t>가덕면</t>
+  </si>
+  <si>
+    <t>4311134000</t>
+  </si>
+  <si>
+    <t>남일면</t>
+  </si>
+  <si>
+    <t>4311135000</t>
+  </si>
+  <si>
+    <t>문의면</t>
+  </si>
+  <si>
+    <t>4311152500</t>
+  </si>
+  <si>
+    <t>19980201</t>
+  </si>
+  <si>
+    <t>4311154500</t>
+  </si>
+  <si>
+    <t>4311162000</t>
+  </si>
+  <si>
+    <t>탑대성동</t>
+  </si>
+  <si>
+    <t>4311167000</t>
+  </si>
+  <si>
+    <t>영운동</t>
+  </si>
+  <si>
+    <t>4311168000</t>
+  </si>
+  <si>
+    <t>금천동</t>
+  </si>
+  <si>
+    <t>4311169000</t>
+  </si>
+  <si>
+    <t>용담.명암.산성동</t>
+  </si>
+  <si>
+    <t>4311172000</t>
+  </si>
+  <si>
+    <t>용암1동</t>
+  </si>
+  <si>
+    <t>20030401</t>
+  </si>
+  <si>
+    <t>4311173000</t>
+  </si>
+  <si>
+    <t>용암2동</t>
+  </si>
+  <si>
+    <t>4400000000</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>4413000000</t>
+  </si>
+  <si>
+    <t>천안시</t>
+  </si>
+  <si>
+    <t>4413100000</t>
+  </si>
+  <si>
+    <t>천안시 동남구</t>
+  </si>
+  <si>
+    <t>20080623</t>
+  </si>
+  <si>
+    <t>4413125000</t>
+  </si>
+  <si>
+    <t>목천읍</t>
+  </si>
+  <si>
+    <t>4413131000</t>
+  </si>
+  <si>
+    <t>풍세면</t>
+  </si>
+  <si>
+    <t>4413132000</t>
+  </si>
+  <si>
+    <t>광덕면</t>
+  </si>
+  <si>
+    <t>4413133000</t>
+  </si>
+  <si>
+    <t>북면</t>
+  </si>
+  <si>
+    <t>4413134000</t>
+  </si>
+  <si>
+    <t>성남면</t>
+  </si>
+  <si>
+    <t>4413135000</t>
+  </si>
+  <si>
+    <t>수신면</t>
+  </si>
+  <si>
+    <t>4413136000</t>
+  </si>
+  <si>
+    <t>병천면</t>
+  </si>
+  <si>
+    <t>4413137000</t>
+  </si>
+  <si>
+    <t>4413151000</t>
+  </si>
+  <si>
+    <t>4413152000</t>
+  </si>
+  <si>
+    <t>문성동</t>
+  </si>
+  <si>
+    <t>4413153000</t>
+  </si>
+  <si>
+    <t>원성1동</t>
+  </si>
+  <si>
+    <t>4413154000</t>
+  </si>
+  <si>
+    <t>원성2동</t>
+  </si>
+  <si>
+    <t>4413155000</t>
+  </si>
+  <si>
+    <t>봉명동</t>
+  </si>
+  <si>
+    <t>4413156000</t>
+  </si>
+  <si>
+    <t>일봉동</t>
+  </si>
+  <si>
+    <t>4413157000</t>
+  </si>
+  <si>
+    <t>신방동</t>
+  </si>
+  <si>
+    <t>4413158000</t>
+  </si>
+  <si>
+    <t>청룡동</t>
+  </si>
+  <si>
+    <t>4413159000</t>
+  </si>
+  <si>
+    <t>신안동</t>
+  </si>
+  <si>
+    <t>4500000000</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>4511000000</t>
+  </si>
+  <si>
+    <t>전주시</t>
+  </si>
+  <si>
+    <t>4511100000</t>
+  </si>
+  <si>
+    <t>전주시 완산구</t>
+  </si>
+  <si>
+    <t>19890501</t>
+  </si>
+  <si>
+    <t>4511151000</t>
+  </si>
+  <si>
+    <t>4511153000</t>
+  </si>
+  <si>
+    <t>풍남동</t>
+  </si>
+  <si>
+    <t>19960901</t>
+  </si>
+  <si>
+    <t>4511160500</t>
+  </si>
+  <si>
+    <t>노송동</t>
+  </si>
+  <si>
+    <t>20050801</t>
+  </si>
+  <si>
+    <t>4511163500</t>
+  </si>
+  <si>
+    <t>완산동</t>
+  </si>
+  <si>
+    <t>4511165000</t>
+  </si>
+  <si>
+    <t>동서학동</t>
+  </si>
+  <si>
+    <t>19980801</t>
+  </si>
+  <si>
+    <t>4511166000</t>
+  </si>
+  <si>
+    <t>서서학동</t>
+  </si>
+  <si>
+    <t>4511167100</t>
+  </si>
+  <si>
+    <t>중화산1동</t>
+  </si>
+  <si>
+    <t>4511167200</t>
+  </si>
+  <si>
+    <t>중화산2동</t>
+  </si>
+  <si>
+    <t>4511168000</t>
+  </si>
+  <si>
+    <t>서신동</t>
+  </si>
+  <si>
+    <t>4511169100</t>
+  </si>
+  <si>
+    <t>평화1동</t>
+  </si>
+  <si>
+    <t>19960226</t>
+  </si>
+  <si>
+    <t>4511169200</t>
+  </si>
+  <si>
+    <t>평화2동</t>
+  </si>
+  <si>
+    <t>4511170100</t>
+  </si>
+  <si>
+    <t>삼천1동</t>
+  </si>
+  <si>
+    <t>19940808</t>
+  </si>
+  <si>
+    <t>4511170200</t>
+  </si>
+  <si>
+    <t>삼천2동</t>
+  </si>
+  <si>
+    <t>4511170300</t>
+  </si>
+  <si>
+    <t>삼천3동</t>
+  </si>
+  <si>
+    <t>4511171100</t>
+  </si>
+  <si>
+    <t>19900530</t>
+  </si>
+  <si>
+    <t>4511171200</t>
+  </si>
+  <si>
+    <t>4511171300</t>
+  </si>
+  <si>
+    <t>19920416</t>
+  </si>
+  <si>
+    <t>4511171400</t>
+  </si>
+  <si>
+    <t>효자4동</t>
+  </si>
+  <si>
+    <t>4511173000</t>
+  </si>
+  <si>
+    <t>효자5동</t>
+  </si>
+  <si>
+    <t>20180701</t>
+  </si>
+  <si>
+    <t>4611075700</t>
+  </si>
+  <si>
+    <t>하당동</t>
+  </si>
+  <si>
+    <t>4611075800</t>
+  </si>
+  <si>
+    <t>4611078000</t>
+  </si>
+  <si>
+    <t>삼향동</t>
+  </si>
+  <si>
+    <t>4611079000</t>
+  </si>
+  <si>
+    <t>옥암동</t>
+  </si>
+  <si>
+    <t>4611080000</t>
+  </si>
+  <si>
+    <t>부흥동</t>
+  </si>
+  <si>
+    <t>4611081000</t>
+  </si>
+  <si>
+    <t>부주동</t>
+  </si>
+  <si>
+    <t>20120125</t>
+  </si>
+  <si>
+    <t>4700000000</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>4711000000</t>
+  </si>
+  <si>
+    <t>포항시</t>
+  </si>
+  <si>
+    <t>4711100000</t>
+  </si>
+  <si>
+    <t>포항시 남구</t>
+  </si>
+  <si>
+    <t>4711125000</t>
+  </si>
+  <si>
+    <t>구룡포읍</t>
+  </si>
+  <si>
+    <t>4711125300</t>
+  </si>
+  <si>
+    <t>연일읍</t>
+  </si>
+  <si>
+    <t>4711125600</t>
+  </si>
+  <si>
+    <t>오천읍</t>
+  </si>
+  <si>
+    <t>4711131000</t>
+  </si>
+  <si>
+    <t>대송면</t>
+  </si>
+  <si>
+    <t>4711132000</t>
+  </si>
+  <si>
+    <t>동해면</t>
+  </si>
+  <si>
+    <t>4711133000</t>
+  </si>
+  <si>
+    <t>장기면</t>
+  </si>
+  <si>
+    <t>4711135000</t>
+  </si>
+  <si>
+    <t>호미곶면</t>
+  </si>
+  <si>
+    <t>20100101</t>
+  </si>
+  <si>
+    <t>4711152500</t>
+  </si>
+  <si>
+    <t>상대동</t>
+  </si>
+  <si>
+    <t>20090101</t>
+  </si>
+  <si>
+    <t>4711154500</t>
+  </si>
+  <si>
+    <t>해도동</t>
+  </si>
+  <si>
+    <t>4711155000</t>
+  </si>
+  <si>
+    <t>송도동</t>
+  </si>
+  <si>
+    <t>4711156000</t>
+  </si>
+  <si>
+    <t>청림동</t>
+  </si>
+  <si>
+    <t>4711157000</t>
+  </si>
+  <si>
+    <t>제철동</t>
+  </si>
+  <si>
+    <t>4711158000</t>
+  </si>
+  <si>
+    <t>효곡동</t>
+  </si>
+  <si>
+    <t>4711159000</t>
+  </si>
+  <si>
+    <t>대이동</t>
+  </si>
+  <si>
+    <t>4800000000</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>4812000000</t>
+  </si>
+  <si>
+    <t>창원시</t>
+  </si>
+  <si>
+    <t>20100701</t>
+  </si>
+  <si>
+    <t>4812100000</t>
+  </si>
+  <si>
+    <t>창원시 의창구</t>
+  </si>
+  <si>
+    <t>4812125000</t>
+  </si>
+  <si>
+    <t>동읍</t>
+  </si>
+  <si>
+    <t>4812131000</t>
+  </si>
+  <si>
+    <t>4812132000</t>
+  </si>
+  <si>
+    <t>대산면</t>
+  </si>
+  <si>
+    <t>4812151000</t>
+  </si>
+  <si>
+    <t>의창동</t>
+  </si>
+  <si>
+    <t>4812152000</t>
+  </si>
+  <si>
+    <t>팔룡동</t>
+  </si>
+  <si>
+    <t>4812153000</t>
+  </si>
+  <si>
+    <t>명곡동</t>
+  </si>
+  <si>
+    <t>4812154000</t>
+  </si>
+  <si>
+    <t>봉림동</t>
+  </si>
+  <si>
+    <t>4812155000</t>
+  </si>
+  <si>
+    <t>용지동</t>
+  </si>
+  <si>
+    <t>5000000000</t>
+  </si>
+  <si>
+    <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>20060701</t>
+  </si>
+  <si>
+    <t>5011000000</t>
+  </si>
+  <si>
+    <t>제주시</t>
+  </si>
+  <si>
+    <t>5011025000</t>
+  </si>
+  <si>
+    <t>한림읍</t>
+  </si>
+  <si>
+    <t>5011025300</t>
+  </si>
+  <si>
+    <t>애월읍</t>
+  </si>
+  <si>
+    <t>5011025600</t>
+  </si>
+  <si>
+    <t>구좌읍</t>
+  </si>
+  <si>
+    <t>5011025900</t>
+  </si>
+  <si>
+    <t>조천읍</t>
+  </si>
+  <si>
+    <t>5011031000</t>
+  </si>
+  <si>
+    <t>한경면</t>
+  </si>
+  <si>
+    <t>5011032000</t>
+  </si>
+  <si>
+    <t>추자면</t>
+  </si>
+  <si>
+    <t>5011033000</t>
+  </si>
+  <si>
+    <t>우도면</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="I372" sqref="I372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3477,6 +4845,3978 @@
         <v>296</v>
       </c>
     </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D256" s="2"/>
+      <c r="E256" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D257" s="2"/>
+      <c r="E257" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D292" s="2"/>
+      <c r="E292" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D293" s="2"/>
+      <c r="E293" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D314" s="2"/>
+      <c r="E314" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D339" s="2"/>
+      <c r="E339" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D340" s="2"/>
+      <c r="E340" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D356" s="2"/>
+      <c r="E356" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D357" s="2"/>
+      <c r="E357" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D367" s="2"/>
+      <c r="E367" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
